--- a/outputs-HGR-r202-archive/g__Limosilactobacillus_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Limosilactobacillus_train.xlsx
@@ -505,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -858,26 +858,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_1.fasta</t>
+          <t>label_GCF_001435475_0.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8616269229973704</v>
+        <v>0.8822401908687708</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008548175877894776</v>
+        <v>0.01915965837920991</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01112655243044977</v>
+        <v>0.005012057112766029</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002615129182642489</v>
+        <v>0.001040665885518539</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1160832195116424</v>
+        <v>0.09254742775373478</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8616269229973704</v>
+        <v>0.8822401908687708</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -888,26 +888,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_13.fasta</t>
+          <t>label_GCF_001435475_22.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8791951672539415</v>
+        <v>0.934890006075156</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007585377789246043</v>
+        <v>0.01088071152755399</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01320996511727289</v>
+        <v>0.006191248824310629</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002606732415097037</v>
+        <v>0.0008417824264819136</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09740275742444256</v>
+        <v>0.04719625114649736</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8791951672539415</v>
+        <v>0.934890006075156</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -918,26 +918,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_16.fasta</t>
+          <t>label_GCF_001435475_24.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8459186358597613</v>
+        <v>0.9175173353452321</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005556235213816528</v>
+        <v>0.02632477729947825</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01048782765520276</v>
+        <v>0.01824037754741319</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004537396500924273</v>
+        <v>0.0009741551829653694</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1334999047702951</v>
+        <v>0.03694335462491105</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8459186358597613</v>
+        <v>0.9175173353452321</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -948,26 +948,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_26.fasta</t>
+          <t>label_GCF_001435475_32.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8549717641750266</v>
+        <v>0.5215602747883712</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006194232225202449</v>
+        <v>0.07556670674519871</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01328583634028697</v>
+        <v>0.07259776962745647</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006342745253665998</v>
+        <v>0.05111709279426029</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1192054220058179</v>
+        <v>0.2791581560447133</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8549717641750266</v>
+        <v>0.5215602747883712</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -978,116 +978,116 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_3.fasta</t>
+          <t>label_GCF_001435475_36.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8890649237827386</v>
+        <v>0.05233512611460058</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005637660410659107</v>
+        <v>0.02338893869791683</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01274708763978738</v>
+        <v>0.04235778194658005</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002272822273348831</v>
+        <v>0.5873780544257544</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09027750589346596</v>
+        <v>0.2945400988151482</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8890649237827386</v>
+        <v>0.5873780544257544</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus antri</t>
+          <t>s__Limosilactobacillus sp900557215</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_37.fasta</t>
+          <t>label_GCF_001435475_38.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1703859099811529</v>
+        <v>0.3764809329812157</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0161258999726397</v>
+        <v>0.05364770129142369</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08995884509606004</v>
+        <v>0.06958167604701751</v>
       </c>
       <c r="E17" t="n">
-        <v>0.358777139861656</v>
+        <v>0.2764460891007393</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3647522050884912</v>
+        <v>0.2238436005796038</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3647522050884912</v>
+        <v>0.3764809329812157</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
+          <t>s__Limosilactobacillus antri</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_41.fasta</t>
+          <t>label_GCF_001435475_44.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3672808149802155</v>
+        <v>0.9272890246008144</v>
       </c>
       <c r="C18" t="n">
-        <v>0.015669414574219</v>
+        <v>0.01720045488758883</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08518347521752165</v>
+        <v>0.006351806550794152</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3813321358298224</v>
+        <v>0.000726418716832446</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1505341593982217</v>
+        <v>0.04843229524397005</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3813321358298224</v>
+        <v>0.9272890246008144</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus antri</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_6.fasta</t>
+          <t>label_GCF_001435475_47.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8392959725188491</v>
+        <v>0.549813017205266</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01458653847760762</v>
+        <v>0.09127371913364545</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0092948900834649</v>
+        <v>0.0102341856134121</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00281022123836494</v>
+        <v>0.3454764018513117</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1340123776817135</v>
+        <v>0.003202676196364967</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8392959725188491</v>
+        <v>0.549813017205266</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1098,26 +1098,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_0.fasta</t>
+          <t>label_GCF_001435475_48.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8822401908687708</v>
+        <v>0.9374645301522851</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01915965837920991</v>
+        <v>0.0143171455164972</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005012057112766029</v>
+        <v>0.008145377759269497</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001040665885518539</v>
+        <v>0.0007530305469440591</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09254742775373478</v>
+        <v>0.03931991602500408</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8822401908687708</v>
+        <v>0.9374645301522851</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1128,26 +1128,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_22.fasta</t>
+          <t>label_GCF_001435475_5.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.934890006075156</v>
+        <v>0.9535123927941397</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01088071152755399</v>
+        <v>0.009171445667917713</v>
       </c>
       <c r="D21" t="n">
-        <v>0.006191248824310629</v>
+        <v>0.01228122167166958</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0008417824264819136</v>
+        <v>0.0008240411347169228</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04719625114649736</v>
+        <v>0.02421089873155615</v>
       </c>
       <c r="G21" t="n">
-        <v>0.934890006075156</v>
+        <v>0.9535123927941397</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1158,26 +1158,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_24.fasta</t>
+          <t>label_GCF_001435475_8.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9175173353452321</v>
+        <v>0.9623775069431235</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02632477729947825</v>
+        <v>0.005954772543308944</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01824037754741319</v>
+        <v>0.01169993478161313</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0009741551829653694</v>
+        <v>0.0008961945419457401</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03694335462491105</v>
+        <v>0.01907159119000858</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9175173353452321</v>
+        <v>0.9623775069431235</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1188,26 +1188,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_32.fasta</t>
+          <t>label_GCF_001435475_9.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5215602747883712</v>
+        <v>0.9444135303333692</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07556670674519871</v>
+        <v>0.007790010357710681</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07259776962745647</v>
+        <v>0.01049756069453465</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05111709279426029</v>
+        <v>0.0009804102068557334</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2791581560447133</v>
+        <v>0.03631848840752981</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5215602747883712</v>
+        <v>0.9444135303333692</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1218,56 +1218,56 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_36.fasta</t>
+          <t>label_GCF_001435475_10.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.05233512611460058</v>
+        <v>0.8950728776535186</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02338893869791683</v>
+        <v>0.01748806256982657</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04235778194658005</v>
+        <v>0.04126885983077624</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5873780544257544</v>
+        <v>0.02619475103294022</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2945400988151482</v>
+        <v>0.01997544891293826</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5873780544257544</v>
+        <v>0.8950728776535186</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus antri</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_38.fasta</t>
+          <t>label_GCF_001435475_12.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3764809329812157</v>
+        <v>0.5531156097777864</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05364770129142369</v>
+        <v>0.05245153833160898</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06958167604701751</v>
+        <v>0.04266656154527126</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2764460891007393</v>
+        <v>0.1048572573502287</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2238436005796038</v>
+        <v>0.2469090329951046</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3764809329812157</v>
+        <v>0.5531156097777864</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1278,26 +1278,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_44.fasta</t>
+          <t>label_GCF_001435475_14.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9272890246008144</v>
+        <v>0.8534384377980591</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01720045488758883</v>
+        <v>0.04273695626071034</v>
       </c>
       <c r="D26" t="n">
-        <v>0.006351806550794152</v>
+        <v>0.04584954908803365</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000726418716832446</v>
+        <v>0.03089984461890176</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04843229524397005</v>
+        <v>0.0270752122342953</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9272890246008144</v>
+        <v>0.8534384377980591</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1308,26 +1308,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_47.fasta</t>
+          <t>label_GCF_001435475_17.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.549813017205266</v>
+        <v>0.8466752844944574</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09127371913364545</v>
+        <v>0.03093347452476817</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0102341856134121</v>
+        <v>0.04116947311777714</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3454764018513117</v>
+        <v>0.05893763600134712</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003202676196364967</v>
+        <v>0.02228413186165019</v>
       </c>
       <c r="G27" t="n">
-        <v>0.549813017205266</v>
+        <v>0.8466752844944574</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1338,26 +1338,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_48.fasta</t>
+          <t>label_GCF_001435475_18.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9374645301522851</v>
+        <v>0.8579678330227385</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0143171455164972</v>
+        <v>0.0444322302590837</v>
       </c>
       <c r="D28" t="n">
-        <v>0.008145377759269497</v>
+        <v>0.03878184980914942</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0007530305469440591</v>
+        <v>0.03602161018153963</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03931991602500408</v>
+        <v>0.0227964767274887</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9374645301522851</v>
+        <v>0.8579678330227385</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1368,26 +1368,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_5.fasta</t>
+          <t>label_GCF_001435475_34.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9535123927941397</v>
+        <v>0.7872937695684389</v>
       </c>
       <c r="C29" t="n">
-        <v>0.009171445667917713</v>
+        <v>0.08150276163726518</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01228122167166958</v>
+        <v>0.03776672185114269</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0008240411347169228</v>
+        <v>0.0185798851584406</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02421089873155615</v>
+        <v>0.07485686178471265</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9535123927941397</v>
+        <v>0.7872937695684389</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1398,26 +1398,26 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_8.fasta</t>
+          <t>label_GCF_001435475_39.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9623775069431235</v>
+        <v>0.7792449407505013</v>
       </c>
       <c r="C30" t="n">
-        <v>0.005954772543308944</v>
+        <v>0.07323146649017517</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01169993478161313</v>
+        <v>0.03555147060111146</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0008961945419457401</v>
+        <v>0.03625188109510578</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01907159119000858</v>
+        <v>0.07572024106310618</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9623775069431235</v>
+        <v>0.7792449407505013</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1428,26 +1428,26 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_9.fasta</t>
+          <t>label_GCF_001435475_4.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9444135303333692</v>
+        <v>0.8342148834859587</v>
       </c>
       <c r="C31" t="n">
-        <v>0.007790010357710681</v>
+        <v>0.04426064490252632</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01049756069453465</v>
+        <v>0.0377756451346564</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0009804102068557334</v>
+        <v>0.03773360488049716</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03631848840752981</v>
+        <v>0.04601522159636132</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9444135303333692</v>
+        <v>0.8342148834859587</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1458,26 +1458,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_10.fasta</t>
+          <t>label_GCF_001435475_42.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8950728776535186</v>
+        <v>0.558988310661427</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01748806256982657</v>
+        <v>0.2018388504946372</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04126885983077624</v>
+        <v>0.01843517452662345</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02619475103294022</v>
+        <v>0.001241852163641414</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01997544891293826</v>
+        <v>0.2194958121536708</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8950728776535186</v>
+        <v>0.558988310661427</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1488,26 +1488,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_12.fasta</t>
+          <t>label_GCF_001435475_45.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5531156097777864</v>
+        <v>0.6810224129594679</v>
       </c>
       <c r="C33" t="n">
-        <v>0.05245153833160898</v>
+        <v>0.04248355863517488</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04266656154527126</v>
+        <v>0.02725641891939516</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1048572573502287</v>
+        <v>0.01091798860075903</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2469090329951046</v>
+        <v>0.238319620885203</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5531156097777864</v>
+        <v>0.6810224129594679</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1518,26 +1518,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_14.fasta</t>
+          <t>label_GCF_001435475_7.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8534384377980591</v>
+        <v>0.8160644827920726</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04273695626071034</v>
+        <v>0.06141872523882403</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04584954908803365</v>
+        <v>0.04180851708199269</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03089984461890176</v>
+        <v>0.03900141484253444</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0270752122342953</v>
+        <v>0.04170686004457629</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8534384377980591</v>
+        <v>0.8160644827920726</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1548,26 +1548,26 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_17.fasta</t>
+          <t>label_GCF_001435475_15.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.8466752844944574</v>
+        <v>0.9687371621434625</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03093347452476817</v>
+        <v>2.22042956325297e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04116947311777714</v>
+        <v>0.01165804965396701</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05893763600134712</v>
+        <v>0.00494400339706457</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02228413186165019</v>
+        <v>0.01466078480548367</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8466752844944574</v>
+        <v>0.9687371621434625</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1578,26 +1578,26 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_18.fasta</t>
+          <t>label_GCF_001435475_2.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.8579678330227385</v>
+        <v>0.9624262163766302</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0444322302590837</v>
+        <v>7.132776581429879e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03878184980914942</v>
+        <v>0.02372637664715938</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03602161018153963</v>
+        <v>0.01321171188081516</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0227964767274887</v>
+        <v>0.0006356950953240204</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8579678330227385</v>
+        <v>0.9624262163766302</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1608,26 +1608,26 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_34.fasta</t>
+          <t>label_GCF_001435475_20.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.7872937695684389</v>
+        <v>0.9455918183680131</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08150276163726518</v>
+        <v>1.787029108319287e-09</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03776672185114269</v>
+        <v>0.02156921061452024</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0185798851584406</v>
+        <v>0.009438441789360253</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07485686178471265</v>
+        <v>0.02340052744107746</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7872937695684389</v>
+        <v>0.9455918183680131</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1638,26 +1638,26 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_39.fasta</t>
+          <t>label_GCF_001435475_23.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.7792449407505013</v>
+        <v>0.9412386942453403</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07323146649017517</v>
+        <v>2.984760244054708e-09</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03555147060111146</v>
+        <v>0.02869921470381863</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03625188109510578</v>
+        <v>0.01225247358704007</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07572024106310618</v>
+        <v>0.01780961447904081</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7792449407505013</v>
+        <v>0.9412386942453403</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1668,26 +1668,26 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_4.fasta</t>
+          <t>label_GCF_001435475_25.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8342148834859587</v>
+        <v>0.9272885209946917</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04426064490252632</v>
+        <v>7.658407140615316e-09</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0377756451346564</v>
+        <v>0.03635857752280064</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03773360488049716</v>
+        <v>0.01672717417742876</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04601522159636132</v>
+        <v>0.01962571964667168</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8342148834859587</v>
+        <v>0.9272885209946917</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1698,26 +1698,26 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_42.fasta</t>
+          <t>label_GCF_001435475_28.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.558988310661427</v>
+        <v>0.9537099633659517</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2018388504946372</v>
+        <v>2.220699694297813e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01843517452662345</v>
+        <v>0.01926258848317655</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001241852163641414</v>
+        <v>0.02702393921101159</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2194958121536708</v>
+        <v>3.508939838022506e-06</v>
       </c>
       <c r="G40" t="n">
-        <v>0.558988310661427</v>
+        <v>0.9537099633659517</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1728,26 +1728,26 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_45.fasta</t>
+          <t>label_GCF_001435475_29.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6810224129594679</v>
+        <v>0.8473848388735961</v>
       </c>
       <c r="C41" t="n">
-        <v>0.04248355863517488</v>
+        <v>2.158814606999465e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02725641891939516</v>
+        <v>0.03426582180568947</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01091798860075903</v>
+        <v>0.04269718700392489</v>
       </c>
       <c r="F41" t="n">
-        <v>0.238319620885203</v>
+        <v>0.07565215231657356</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6810224129594679</v>
+        <v>0.8473848388735961</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1758,86 +1758,86 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_7.fasta</t>
+          <t>label_GCF_001435475_43.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.8160644827920726</v>
+        <v>0.4519289392530267</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06141872523882403</v>
+        <v>0.5294861226675023</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04180851708199269</v>
+        <v>0.0153815021182989</v>
       </c>
       <c r="E42" t="n">
-        <v>0.03900141484253444</v>
+        <v>0.003203435836518475</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04170686004457629</v>
+        <v>1.246536600476484e-10</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8160644827920726</v>
+        <v>0.5294861226675023</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus antri</t>
+          <t>s__Limosilactobacillus fermentum</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_15.fasta</t>
+          <t>label_GCF_001435475_46.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9687371621434625</v>
+        <v>0.2216847099549625</v>
       </c>
       <c r="C43" t="n">
-        <v>2.22042956325297e-14</v>
+        <v>0.7633148840998903</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01165804965396701</v>
+        <v>0.01334971509194824</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00494400339706457</v>
+        <v>0.001650690853176551</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01466078480548367</v>
+        <v>2.231987280142342e-14</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9687371621434625</v>
+        <v>0.7633148840998903</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus antri</t>
+          <t>s__Limosilactobacillus fermentum</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_2.fasta</t>
+          <t>label_GCF_001435475_50.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9624262163766302</v>
+        <v>0.9697385241675963</v>
       </c>
       <c r="C44" t="n">
-        <v>7.132776581429879e-14</v>
+        <v>2.330614442398836e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02372637664715938</v>
+        <v>0.01331966439216639</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01321171188081516</v>
+        <v>0.006545154708786124</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0006356950953240204</v>
+        <v>0.01039665673121811</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9624262163766302</v>
+        <v>0.9697385241675963</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1848,26 +1848,26 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_20.fasta</t>
+          <t>label_GCF_001435475_51.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9455918183680131</v>
+        <v>0.9663010212885063</v>
       </c>
       <c r="C45" t="n">
-        <v>1.787029108319287e-09</v>
+        <v>7.829137958523269e-10</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02156921061452024</v>
+        <v>0.00949223693849105</v>
       </c>
       <c r="E45" t="n">
-        <v>0.009438441789360253</v>
+        <v>0.005299475906980825</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02340052744107746</v>
+        <v>0.01890726508310802</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9455918183680131</v>
+        <v>0.9663010212885063</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1878,26 +1878,26 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_23.fasta</t>
+          <t>label_GCF_001435475_11.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9412386942453403</v>
+        <v>0.8918544553417556</v>
       </c>
       <c r="C46" t="n">
-        <v>2.984760244054708e-09</v>
+        <v>0.02024041675677084</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02869921470381863</v>
+        <v>0.009313056288209413</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01225247358704007</v>
+        <v>0.0008740983134390039</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01780961447904081</v>
+        <v>0.07771797329982513</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9412386942453403</v>
+        <v>0.8918544553417556</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1908,26 +1908,26 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_25.fasta</t>
+          <t>label_GCF_001435475_19.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9272885209946917</v>
+        <v>0.8903999396615437</v>
       </c>
       <c r="C47" t="n">
-        <v>7.658407140615316e-09</v>
+        <v>0.01437185701745536</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03635857752280064</v>
+        <v>0.01474206280655595</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01672717417742876</v>
+        <v>0.001071718711013081</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01962571964667168</v>
+        <v>0.07941442180343206</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9272885209946917</v>
+        <v>0.8903999396615437</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1938,26 +1938,26 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_28.fasta</t>
+          <t>label_GCF_001435475_21.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9537099633659517</v>
+        <v>0.8631198047526895</v>
       </c>
       <c r="C48" t="n">
-        <v>2.220699694297813e-14</v>
+        <v>0.02279791368580849</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01926258848317655</v>
+        <v>0.01508672727471203</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02702393921101159</v>
+        <v>0.001303514569874547</v>
       </c>
       <c r="F48" t="n">
-        <v>3.508939838022506e-06</v>
+        <v>0.09769203971691538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9537099633659517</v>
+        <v>0.8631198047526895</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1968,26 +1968,26 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_29.fasta</t>
+          <t>label_GCF_001435475_27.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8473848388735961</v>
+        <v>0.7718043266282413</v>
       </c>
       <c r="C49" t="n">
-        <v>2.158814606999465e-13</v>
+        <v>0.0259731648159803</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03426582180568947</v>
+        <v>0.02098086763987252</v>
       </c>
       <c r="E49" t="n">
-        <v>0.04269718700392489</v>
+        <v>0.008760824177013635</v>
       </c>
       <c r="F49" t="n">
-        <v>0.07565215231657356</v>
+        <v>0.1724808167388922</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8473848388735961</v>
+        <v>0.7718043266282413</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -1998,86 +1998,86 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_43.fasta</t>
+          <t>label_GCF_001435475_30.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4519289392530267</v>
+        <v>0.8750249252150964</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5294861226675023</v>
+        <v>0.01097333122825791</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0153815021182989</v>
+        <v>0.01587473925627952</v>
       </c>
       <c r="E50" t="n">
-        <v>0.003203435836518475</v>
+        <v>0.002328467081198596</v>
       </c>
       <c r="F50" t="n">
-        <v>1.246536600476484e-10</v>
+        <v>0.09579853721916747</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5294861226675023</v>
+        <v>0.8750249252150964</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus fermentum</t>
+          <t>s__Limosilactobacillus antri</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_46.fasta</t>
+          <t>label_GCF_001435475_31.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2216847099549625</v>
+        <v>0.9341648116168352</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7633148840998903</v>
+        <v>0.01017999263696339</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01334971509194824</v>
+        <v>0.02210072950541435</v>
       </c>
       <c r="E51" t="n">
-        <v>0.001650690853176551</v>
+        <v>0.003546281772408546</v>
       </c>
       <c r="F51" t="n">
-        <v>2.231987280142342e-14</v>
+        <v>0.03000818446837849</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7633148840998903</v>
+        <v>0.9341648116168352</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus fermentum</t>
+          <t>s__Limosilactobacillus antri</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_50.fasta</t>
+          <t>label_GCF_001435475_33.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9697385241675963</v>
+        <v>0.9107655116582013</v>
       </c>
       <c r="C52" t="n">
-        <v>2.330614442398836e-13</v>
+        <v>0.007525116425683982</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01331966439216639</v>
+        <v>0.008955170997037019</v>
       </c>
       <c r="E52" t="n">
-        <v>0.006545154708786124</v>
+        <v>0.0007978006254972022</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01039665673121811</v>
+        <v>0.07195640029358036</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9697385241675963</v>
+        <v>0.9107655116582013</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2088,26 +2088,26 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_51.fasta</t>
+          <t>label_GCF_001435475_35.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9663010212885063</v>
+        <v>0.9120314296761706</v>
       </c>
       <c r="C53" t="n">
-        <v>7.829137958523269e-10</v>
+        <v>0.02839718881039227</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00949223693849105</v>
+        <v>0.03532665289971804</v>
       </c>
       <c r="E53" t="n">
-        <v>0.005299475906980825</v>
+        <v>0.009540172367705553</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01890726508310802</v>
+        <v>0.01470455624601354</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9663010212885063</v>
+        <v>0.9120314296761706</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2118,26 +2118,26 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_11.fasta</t>
+          <t>label_GCF_001435475_40.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.8918544553417556</v>
+        <v>0.8710650359571953</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02024041675677084</v>
+        <v>0.05122071874859304</v>
       </c>
       <c r="D54" t="n">
-        <v>0.009313056288209413</v>
+        <v>0.0357548138850959</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0008740983134390039</v>
+        <v>0.007369845822122141</v>
       </c>
       <c r="F54" t="n">
-        <v>0.07771797329982513</v>
+        <v>0.03458958558699356</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8918544553417556</v>
+        <v>0.8710650359571953</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2148,268 +2148,28 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001435475_19.fasta</t>
+          <t>label_GCF_001435475_49.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.8903999396615437</v>
+        <v>0.9156827570912701</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01437185701745536</v>
+        <v>0.008886140971255146</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01474206280655595</v>
+        <v>0.01335522403661021</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001071718711013081</v>
+        <v>0.001633655922219155</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07941442180343206</v>
+        <v>0.06044222197864534</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8903999396615437</v>
+        <v>0.9156827570912701</v>
       </c>
       <c r="H55" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus antri</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001435475_21.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.8631198047526895</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.02279791368580849</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.01508672727471203</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.001303514569874547</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.09769203971691538</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.8631198047526895</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus antri</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001435475_27.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.7718043266282413</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.0259731648159803</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.02098086763987252</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.008760824177013635</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.1724808167388922</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.7718043266282413</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus antri</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001435475_30.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.8750249252150964</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.01097333122825791</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.01587473925627952</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.002328467081198596</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.09579853721916747</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.8750249252150964</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus antri</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001435475_31.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9341648116168352</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.01017999263696339</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.02210072950541435</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.003546281772408546</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.03000818446837849</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.9341648116168352</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus antri</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001435475_33.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9107655116582013</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.007525116425683982</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.008955170997037019</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.0007978006254972022</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.07195640029358036</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.9107655116582013</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus antri</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001435475_35.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9120314296761706</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.02839718881039227</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.03532665289971804</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.009540172367705553</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.01470455624601354</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.9120314296761706</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus antri</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001435475_40.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.8710650359571953</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.05122071874859304</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.0357548138850959</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.007369845822122141</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.03458958558699356</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.8710650359571953</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus antri</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001435475_49.fasta</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9156827570912701</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.008886140971255146</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.01335522403661021</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.001633655922219155</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.06044222197864534</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.9156827570912701</v>
-      </c>
-      <c r="H63" t="inlineStr">
         <is>
           <t>s__Limosilactobacillus antri</t>
         </is>
@@ -2426,7 +2186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2539,56 +2299,56 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159215_4.fasta</t>
+          <t>label_GCF_000159215_2.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4212386242477273</v>
+        <v>0.02025347673829261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2420502563591214</v>
+        <v>0.7861495312717525</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03926003559620366</v>
+        <v>0.01501810248932797</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2934860583819823</v>
+        <v>0.007160612217337541</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003965025414965233</v>
+        <v>0.1714182772832894</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4212386242477273</v>
+        <v>0.7861495312717525</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus antri</t>
+          <t>s__Limosilactobacillus fermentum</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159215_8.fasta</t>
+          <t>label_GCF_000159215_7.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01853943754510799</v>
+        <v>0.003329566068883104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8227002203008621</v>
+        <v>0.8498409224548643</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007229320450663226</v>
+        <v>0.009740582572011254</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01047519584543064</v>
+        <v>0.007365199358143825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1410558258579362</v>
+        <v>0.1297237295460976</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8227002203008621</v>
+        <v>0.8498409224548643</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2599,26 +2359,26 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159215_2.fasta</t>
+          <t>label_GCF_000159215_9.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02025347673829261</v>
+        <v>0.005614712045799474</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7861495312717525</v>
+        <v>0.825432615855222</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01501810248932797</v>
+        <v>0.009283219642966569</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007160612217337541</v>
+        <v>0.0153320779544968</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1714182772832894</v>
+        <v>0.1443373745015151</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7861495312717525</v>
+        <v>0.825432615855222</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2629,56 +2389,56 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159215_7.fasta</t>
+          <t>label_GCF_000159215_0.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003329566068883104</v>
+        <v>0.4465389591098283</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8498409224548643</v>
+        <v>0.07697992881080078</v>
       </c>
       <c r="D7" t="n">
-        <v>0.009740582572011254</v>
+        <v>0.01578966304495892</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007365199358143825</v>
+        <v>0.0007643855972771093</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1297237295460976</v>
+        <v>0.4599270634371349</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8498409224548643</v>
+        <v>0.4599270634371349</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus fermentum</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159215_9.fasta</t>
+          <t>label_GCF_000159215_12.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005614712045799474</v>
+        <v>0.07095558074086193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.825432615855222</v>
+        <v>0.8633756045700005</v>
       </c>
       <c r="D8" t="n">
-        <v>0.009283219642966569</v>
+        <v>0.01689038207951701</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0153320779544968</v>
+        <v>0.02501022678050985</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1443373745015151</v>
+        <v>0.02376820582911078</v>
       </c>
       <c r="G8" t="n">
-        <v>0.825432615855222</v>
+        <v>0.8633756045700005</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2689,56 +2449,56 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159215_0.fasta</t>
+          <t>label_GCF_000159215_1.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4465389591098283</v>
+        <v>0.1787686532669709</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07697992881080078</v>
+        <v>0.7929965051329095</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01578966304495892</v>
+        <v>0.0282333488197871</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0007643855972771093</v>
+        <v>7.917781798375952e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4599270634371349</v>
+        <v>7.010021526425395e-07</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4599270634371349</v>
+        <v>0.7929965051329095</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
+          <t>s__Limosilactobacillus fermentum</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159215_12.fasta</t>
+          <t>label_GCF_000159215_10.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07095558074086193</v>
+        <v>0.0221208442266254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8633756045700005</v>
+        <v>0.9180066388965394</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01689038207951701</v>
+        <v>0.002900969124710808</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02501022678050985</v>
+        <v>0.006763740496219453</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02376820582911078</v>
+        <v>0.05020780725590494</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8633756045700005</v>
+        <v>0.9180066388965394</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2749,26 +2509,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159215_1.fasta</t>
+          <t>label_GCF_000159215_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1787686532669709</v>
+        <v>0.02245819324271625</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7929965051329095</v>
+        <v>0.9368936869937601</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0282333488197871</v>
+        <v>0.002821766589996554</v>
       </c>
       <c r="E11" t="n">
-        <v>7.917781798375952e-07</v>
+        <v>0.003147273254756479</v>
       </c>
       <c r="F11" t="n">
-        <v>7.010021526425395e-07</v>
+        <v>0.03467907991877062</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7929965051329095</v>
+        <v>0.9368936869937601</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2779,26 +2539,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159215_10.fasta</t>
+          <t>label_GCF_000159215_5.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0221208442266254</v>
+        <v>0.1279412356902112</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9180066388965394</v>
+        <v>0.8149673923096324</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002900969124710808</v>
+        <v>0.002774469246922149</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006763740496219453</v>
+        <v>0.002698282810803401</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05020780725590494</v>
+        <v>0.05161861994243085</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9180066388965394</v>
+        <v>0.8149673923096324</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2809,26 +2569,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159215_13.fasta</t>
+          <t>label_GCF_000159215_6.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02245819324271625</v>
+        <v>0.01636301407938753</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9368936869937601</v>
+        <v>0.9332989363078241</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002821766589996554</v>
+        <v>0.005761227454523127</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003147273254756479</v>
+        <v>0.002050846056789915</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03467907991877062</v>
+        <v>0.04252597610147527</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9368936869937601</v>
+        <v>0.9332989363078241</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2839,26 +2599,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159215_5.fasta</t>
+          <t>label_GCF_000159215_11.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1279412356902112</v>
+        <v>0.008296046193066687</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8149673923096324</v>
+        <v>0.8483914625441712</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002774469246922149</v>
+        <v>0.009731284486481749</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002698282810803401</v>
+        <v>0.002574392043509471</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05161861994243085</v>
+        <v>0.131006814732771</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8149673923096324</v>
+        <v>0.8483914625441712</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2869,88 +2629,28 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159215_6.fasta</t>
+          <t>label_GCF_000159215_3.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01636301407938753</v>
+        <v>0.7457336784979327</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9332989363078241</v>
+        <v>0.197016695716629</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005761227454523127</v>
+        <v>0.04909255074992253</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002050846056789915</v>
+        <v>0.0003995487459090657</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04252597610147527</v>
+        <v>0.007757526289606687</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9332989363078241</v>
+        <v>0.7457336784979327</v>
       </c>
       <c r="H15" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus fermentum</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000159215_11.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.008296046193066687</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.8483914625441712</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.009731284486481749</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.002574392043509471</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.131006814732771</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.8483914625441712</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus fermentum</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000159215_3.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.7457336784979327</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.197016695716629</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.04909255074992253</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.0003995487459090657</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.007757526289606687</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.7457336784979327</v>
-      </c>
-      <c r="H17" t="inlineStr">
         <is>
           <t>s__Limosilactobacillus antri</t>
         </is>
@@ -2967,7 +2667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3050,148 +2750,118 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159455_3.fasta</t>
+          <t>label_GCF_000159455_1.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1501041311526721</v>
+        <v>0.5011200782282815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0110208512784276</v>
+        <v>0.08171204420875129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09322828941633979</v>
+        <v>0.06546180054508013</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3315726929158493</v>
+        <v>0.2860125586963593</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4140740352367113</v>
+        <v>0.06569351832152764</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4140740352367113</v>
+        <v>0.5011200782282815</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
+          <t>s__Limosilactobacillus antri</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159455_1.fasta</t>
+          <t>label_GCF_000159455_0.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5011200782282815</v>
+        <v>0.01100641350666955</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08171204420875129</v>
+        <v>0.03087008117001147</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06546180054508013</v>
+        <v>0.03193037628765927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2860125586963593</v>
+        <v>0.06707394714252637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06569351832152764</v>
+        <v>0.8591191818931333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5011200782282815</v>
+        <v>0.8591191818931333</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus antri</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159455_0.fasta</t>
+          <t>label_GCF_000159455_2.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01100641350666955</v>
+        <v>0.3646362715126454</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03087008117001147</v>
+        <v>0.03120376062583614</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03193037628765927</v>
+        <v>0.04007904157015011</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06707394714252637</v>
+        <v>0.4618486847095787</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8591191818931333</v>
+        <v>0.1022322415817897</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8591191818931333</v>
+        <v>0.4618486847095787</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
+          <t>s__Limosilactobacillus sp900557215</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159455_2.fasta</t>
+          <t>label_GCF_000159455_4.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3646362715126454</v>
+        <v>0.3701872881619055</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03120376062583614</v>
+        <v>0.01920603003803119</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04007904157015011</v>
+        <v>0.09462986008205271</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4618486847095787</v>
+        <v>0.2300862685452439</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1022322415817897</v>
+        <v>0.2858905531727668</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4618486847095787</v>
+        <v>0.3701872881619055</v>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus sp900557215</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000159455_4.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.3701872881619055</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.01920603003803119</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.09462986008205271</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2300862685452439</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2858905531727668</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3701872881619055</v>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>s__Limosilactobacillus antri</t>
         </is>
@@ -3203,6 +2873,817 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus antri</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus fermentum</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus reuteri_E</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_13.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.005666276189699004</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.005483851684903269</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01801849873737796</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7870170032649986</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1838143701230212</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7870170032649986</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_19.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2623617812920981</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02729608562029974</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03556400610483691</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3843946898705426</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2903834371122225</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3843946898705426</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_26.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2834264675248035</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03060574097417789</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05447628880395411</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4037754917178675</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2277160109791971</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4037754917178675</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_29.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3108413881267184</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1088893046973279</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05749230765865239</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4273506745018987</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.09542632501540264</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4273506745018987</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_1.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0008413795252825779</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.005713078031207092</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01628255544343475</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8716675923481778</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1054953946518977</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8716675923481778</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_14.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.00969294029809754</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.009195689443483455</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01779188267639019</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7219771656419363</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2413423219400926</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7219771656419363</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_15.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.006013431660010287</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.009309765492293056</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02209401334081237</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6795422137202326</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2830405757866517</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6795422137202326</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_16.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.002623475990986091</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.005227804991467386</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01535756692529805</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7934551626780842</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1833359894141643</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7934551626780842</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_28.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1146741143859802</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03069877283758512</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01144602755595138</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8178457827859024</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02533530243458086</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8178457827859024</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_4.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.001448331520882725</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.007968564830964217</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.02656621137777915</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6665966700023168</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.297420222268057</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6665966700023168</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_0.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01197715463695558</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02621168465738396</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02526648842069319</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.756446475011201</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1800981972737663</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.756446475011201</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_2.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.025997039934466</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.04769759424515609</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02738162871444734</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.639400830162811</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2595229069431196</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.639400830162811</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_21.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1806164880209364</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02237422757051083</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0211016365378664</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7224161656711688</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.05349148219951755</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7224161656711688</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_25.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1916532614689761</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02505592789690008</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02513648370943171</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6775722544445332</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.080582072480159</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6775722544445332</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_3.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.02876522969283955</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03796619471745552</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02501137908020518</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6866608423495727</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2215963541599272</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6866608423495727</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_8.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.03198628574609452</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.03240817659026131</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.04771782268588307</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5534412042764351</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3344465107013261</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5534412042764351</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_11.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01511921679405551</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.239411057636982e-14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01662410110797828</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6389336506721757</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3293230314257681</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6389336506721757</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_18.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.007157943710528044</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.227389700865257e-14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0140656055174126</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7367923266017714</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2419841241702656</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7367923266017714</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_23.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1716549740669519</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.94139707296408e-12</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.04778387964627732</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6115303359262276</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1690308103556018</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6115303359262276</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_27.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2045160979515757</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.435434187639531e-08</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1147092920653188</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6498690672850753</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.03090545834368836</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6498690672850753</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_30.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6972787217756525</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0001781027378237241</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02101670665658392</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2813548950149825</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.000171573814957197</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6972787217756525</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus antri</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_13.fasta</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.005666276189699004</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.005483851684903269</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01801849873737796</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7870170032649986</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1838143701230212</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7870170032649986</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_19.fasta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2623617812920981</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02729608562029974</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.03556400610483691</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3843946898705426</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2903834371122225</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3843946898705426</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_26.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2834264675248035</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03060574097417789</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.05447628880395411</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4037754917178675</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2277160109791971</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4037754917178675</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>label_UMGS2022_29.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3108413881267184</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1088893046973279</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.05749230765865239</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4273506745018987</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.09542632501540264</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4273506745018987</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3261,206 +3742,206 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_13.fasta</t>
+          <t>label_12718_7_59_0.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005666276189699004</v>
+        <v>0.07413933657424734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005483851684903269</v>
+        <v>0.1095066443609019</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01801849873737796</v>
+        <v>0.1904253957793007</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7870170032649986</v>
+        <v>0.02013586688718061</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1838143701230212</v>
+        <v>0.6057927563983694</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7870170032649986</v>
+        <v>0.6057927563983694</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_19.fasta</t>
+          <t>label_12718_7_59_1.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2623617812920981</v>
+        <v>0.0469283319973865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02729608562029974</v>
+        <v>0.08490987439796541</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03556400610483691</v>
+        <v>0.1669848869313017</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3843946898705426</v>
+        <v>0.2444351174986808</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2903834371122225</v>
+        <v>0.4567417891746657</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3843946898705426</v>
+        <v>0.4567417891746657</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_26.fasta</t>
+          <t>label_12718_7_59_12.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2834264675248035</v>
+        <v>0.09555845894170023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03060574097417789</v>
+        <v>0.08903442885114531</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05447628880395411</v>
+        <v>0.154616477242913</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4037754917178675</v>
+        <v>0.0575104059100873</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2277160109791971</v>
+        <v>0.6032802290541539</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4037754917178675</v>
+        <v>0.6032802290541539</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_29.fasta</t>
+          <t>label_12718_7_59_19.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3108413881267184</v>
+        <v>0.03963957871238278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1088893046973279</v>
+        <v>0.0607495022438095</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05749230765865239</v>
+        <v>0.1319285412359135</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4273506745018987</v>
+        <v>0.1510600861986753</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09542632501540264</v>
+        <v>0.6166222916092189</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4273506745018987</v>
+        <v>0.6166222916092189</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_10.fasta</t>
+          <t>label_12718_7_59_24.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03259212044571388</v>
+        <v>0.1126692242522145</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006419466431512008</v>
+        <v>0.0372601238677852</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05593381116316857</v>
+        <v>0.09555978202229824</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6061353792771181</v>
+        <v>0.2844245583565047</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2989192226824874</v>
+        <v>0.4700863115011974</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6061353792771181</v>
+        <v>0.4700863115011974</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_12.fasta</t>
+          <t>label_12718_7_59_25.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09775380940794255</v>
+        <v>0.2207321527178325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007334721400981692</v>
+        <v>0.0369341577898407</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03388379639726679</v>
+        <v>0.07217589922335313</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5844290694346341</v>
+        <v>0.2174720921460221</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2765986033591747</v>
+        <v>0.4526856981229515</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5844290694346341</v>
+        <v>0.4526856981229515</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_17.fasta</t>
+          <t>label_12718_7_59_27.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1298988463017036</v>
+        <v>0.07898487209344494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007552308904759063</v>
+        <v>0.02406008187357445</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06844347162225489</v>
+        <v>0.05281093169336157</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4410633868603947</v>
+        <v>0.4655643579449186</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3530419863108876</v>
+        <v>0.3785797563947005</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4410633868603947</v>
+        <v>0.4655643579449186</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3471,116 +3952,116 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_20.fasta</t>
+          <t>label_12718_7_59_4.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04452526433915961</v>
+        <v>0.09984133873668752</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004686962882351786</v>
+        <v>0.1113798981761716</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02508180819147796</v>
+        <v>0.1714159994691049</v>
       </c>
       <c r="E9" t="n">
-        <v>0.699878311889537</v>
+        <v>0.05515248142546725</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2258276526974735</v>
+        <v>0.5622102821925687</v>
       </c>
       <c r="G9" t="n">
-        <v>0.699878311889537</v>
+        <v>0.5622102821925687</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_22.fasta</t>
+          <t>label_12718_7_59_7.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01183215251339114</v>
+        <v>0.06404567444024734</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00292527818146424</v>
+        <v>0.09212466858570252</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02078307744314116</v>
+        <v>0.1629999961281128</v>
       </c>
       <c r="E10" t="n">
-        <v>0.808127928871017</v>
+        <v>0.04946940040817623</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1563315629909864</v>
+        <v>0.6313602604377612</v>
       </c>
       <c r="G10" t="n">
-        <v>0.808127928871017</v>
+        <v>0.6313602604377612</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_24.fasta</t>
+          <t>label_12718_7_59_10.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03565995041678844</v>
+        <v>0.0170128091365093</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006892866352225933</v>
+        <v>0.06128790866027348</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0207201613304968</v>
+        <v>0.1302286519082395</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7271553360083912</v>
+        <v>0.04764638901179242</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2095716858920975</v>
+        <v>0.7438242412831853</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7271553360083912</v>
+        <v>0.7438242412831853</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_5.fasta</t>
+          <t>label_12718_7_59_17.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1594664338884712</v>
+        <v>0.006135097947166779</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03600117743350219</v>
+        <v>0.04125329774919346</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1377169603087697</v>
+        <v>0.1439304776600714</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08328622339593493</v>
+        <v>0.09826648773487685</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5835292049733218</v>
+        <v>0.7104146389086915</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5835292049733218</v>
+        <v>0.7104146389086915</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3591,56 +4072,56 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_6.fasta</t>
+          <t>label_12718_7_59_23.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.005045350489979033</v>
+        <v>0.07786784382999842</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001729302164994972</v>
+        <v>0.0461113539042559</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02170342032731034</v>
+        <v>0.07856527290055099</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8216910550939576</v>
+        <v>0.2447935011926607</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1498308719237582</v>
+        <v>0.5526620281725341</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8216910550939576</v>
+        <v>0.5526620281725341</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_7.fasta</t>
+          <t>label_12718_7_59_29.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01099654822201599</v>
+        <v>0.002417073782488066</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002786659088008896</v>
+        <v>0.007671160082383302</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01974968056548909</v>
+        <v>0.01033809767365144</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8035510301597026</v>
+        <v>0.7963040652790646</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1629160819647834</v>
+        <v>0.1832696031824126</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8035510301597026</v>
+        <v>0.7963040652790646</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3651,596 +4132,596 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_9.fasta</t>
+          <t>label_12718_7_59_9.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01227356141226115</v>
+        <v>0.01997196925987755</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003182131658210755</v>
+        <v>0.06689468900196541</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01920325715559538</v>
+        <v>0.1555018646339869</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7873861178341904</v>
+        <v>0.06352410625022313</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1779549319397422</v>
+        <v>0.6941073708539471</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7873861178341904</v>
+        <v>0.6941073708539471</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_1.fasta</t>
+          <t>label_12718_7_59_15.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0008413795252825779</v>
+        <v>0.09675105056268367</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005713078031207092</v>
+        <v>0.08613943346438548</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01628255544343475</v>
+        <v>0.03114614509082771</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8716675923481778</v>
+        <v>0.05565210612190937</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1054953946518977</v>
+        <v>0.7303112647601937</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8716675923481778</v>
+        <v>0.7303112647601937</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_14.fasta</t>
+          <t>label_12718_7_59_2.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00969294029809754</v>
+        <v>0.03192610684241861</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009195689443483455</v>
+        <v>0.03681876540621536</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01779188267639019</v>
+        <v>0.02423740919750326</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7219771656419363</v>
+        <v>0.04936153714547348</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2413423219400926</v>
+        <v>0.8576561814083893</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7219771656419363</v>
+        <v>0.8576561814083893</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_15.fasta</t>
+          <t>label_12718_7_59_20.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006013431660010287</v>
+        <v>0.09441997583205192</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009309765492293056</v>
+        <v>0.03834271675143209</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02209401334081237</v>
+        <v>0.04293586651979415</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6795422137202326</v>
+        <v>0.1909919755564768</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2830405757866517</v>
+        <v>0.6333094653402451</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6795422137202326</v>
+        <v>0.6333094653402451</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_16.fasta</t>
+          <t>label_12718_7_59_5.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002623475990986091</v>
+        <v>0.03664872739070219</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005227804991467386</v>
+        <v>0.03610403114917678</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01535756692529805</v>
+        <v>0.01958024608038771</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7934551626780842</v>
+        <v>0.01053412669252623</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1833359894141643</v>
+        <v>0.8971328686872071</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7934551626780842</v>
+        <v>0.8971328686872071</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_28.fasta</t>
+          <t>label_12718_7_59_6.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1146741143859802</v>
+        <v>0.02663819275728805</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03069877283758512</v>
+        <v>0.02942880803120132</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01144602755595138</v>
+        <v>0.03921796166767139</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8178457827859024</v>
+        <v>0.3628966035651085</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02533530243458086</v>
+        <v>0.5418184339787308</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8178457827859024</v>
+        <v>0.5418184339787308</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_4.fasta</t>
+          <t>label_12718_7_59_8.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001448331520882725</v>
+        <v>0.02101306364575642</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007968564830964217</v>
+        <v>0.02231499624183521</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02656621137777915</v>
+        <v>0.02075934927465278</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6665966700023168</v>
+        <v>0.01759364666817147</v>
       </c>
       <c r="F21" t="n">
-        <v>0.297420222268057</v>
+        <v>0.9183189441695842</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6665966700023168</v>
+        <v>0.9183189441695842</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_0.fasta</t>
+          <t>label_12718_7_59_11.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01197715463695558</v>
+        <v>0.006683992581955795</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02621168465738396</v>
+        <v>4.709956852944692e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02526648842069319</v>
+        <v>0.07361921244545992</v>
       </c>
       <c r="E22" t="n">
-        <v>0.756446475011201</v>
+        <v>0.04544113780093185</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1800981972737663</v>
+        <v>0.8742556571716052</v>
       </c>
       <c r="G22" t="n">
-        <v>0.756446475011201</v>
+        <v>0.8742556571716052</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_2.fasta</t>
+          <t>label_12718_7_59_13.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.025997039934466</v>
+        <v>0.03252754393818752</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04769759424515609</v>
+        <v>3.887817393261262e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02738162871444734</v>
+        <v>0.06084292244653873</v>
       </c>
       <c r="E23" t="n">
-        <v>0.639400830162811</v>
+        <v>0.01568546779803737</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2595229069431196</v>
+        <v>0.8909440658171974</v>
       </c>
       <c r="G23" t="n">
-        <v>0.639400830162811</v>
+        <v>0.8909440658171974</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_21.fasta</t>
+          <t>label_12718_7_59_14.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1806164880209364</v>
+        <v>0.005363195571403806</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02237422757051083</v>
+        <v>3.846782183790894e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0211016365378664</v>
+        <v>0.06740483239094781</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7224161656711688</v>
+        <v>0.3191186065094359</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05349148219951755</v>
+        <v>0.6081133655281741</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7224161656711688</v>
+        <v>0.6081133655281741</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_25.fasta</t>
+          <t>label_12718_7_59_16.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1916532614689761</v>
+        <v>0.01881118760669499</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02505592789690008</v>
+        <v>7.97300154101991e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02513648370943171</v>
+        <v>0.1317893165427355</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6775722544445332</v>
+        <v>0.1385795163323588</v>
       </c>
       <c r="F25" t="n">
-        <v>0.080582072480159</v>
+        <v>0.7108199795181309</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6775722544445332</v>
+        <v>0.7108199795181309</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_3.fasta</t>
+          <t>label_12718_7_59_18.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02876522969283955</v>
+        <v>0.01414636041720254</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03796619471745552</v>
+        <v>3.02252466223991e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02501137908020518</v>
+        <v>0.04987017036037737</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6866608423495727</v>
+        <v>0.05327463952258699</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2215963541599272</v>
+        <v>0.8827088296998028</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6866608423495727</v>
+        <v>0.8827088296998028</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_8.fasta</t>
+          <t>label_12718_7_59_30.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03198628574609452</v>
+        <v>0.4339969553783487</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03240817659026131</v>
+        <v>0.5500061539541449</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04771782268588307</v>
+        <v>0.01599415557605878</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5534412042764351</v>
+        <v>2.735091425274203e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3344465107013261</v>
+        <v>2.250450508504107e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5534412042764351</v>
+        <v>0.5500061539541449</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus fermentum</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_11.fasta</t>
+          <t>label_12718_7_59_0.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01511921679405551</v>
+        <v>0.07413933657424734</v>
       </c>
       <c r="C28" t="n">
-        <v>2.239411057636982e-14</v>
+        <v>0.1095066443609019</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01662410110797828</v>
+        <v>0.1904253957793007</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6389336506721757</v>
+        <v>0.02013586688718061</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3293230314257681</v>
+        <v>0.6057927563983694</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6389336506721757</v>
+        <v>0.6057927563983694</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_18.fasta</t>
+          <t>label_12718_7_59_1.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.007157943710528044</v>
+        <v>0.0469283319973865</v>
       </c>
       <c r="C29" t="n">
-        <v>2.227389700865257e-14</v>
+        <v>0.08490987439796541</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0140656055174126</v>
+        <v>0.1669848869313017</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7367923266017714</v>
+        <v>0.2444351174986808</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2419841241702656</v>
+        <v>0.4567417891746657</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7367923266017714</v>
+        <v>0.4567417891746657</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_23.fasta</t>
+          <t>label_12718_7_59_12.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1716549740669519</v>
+        <v>0.09555845894170023</v>
       </c>
       <c r="C30" t="n">
-        <v>4.94139707296408e-12</v>
+        <v>0.08903442885114531</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04778387964627732</v>
+        <v>0.154616477242913</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6115303359262276</v>
+        <v>0.0575104059100873</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1690308103556018</v>
+        <v>0.6032802290541539</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6115303359262276</v>
+        <v>0.6032802290541539</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_27.fasta</t>
+          <t>label_12718_7_59_19.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2045160979515757</v>
+        <v>0.03963957871238278</v>
       </c>
       <c r="C31" t="n">
-        <v>8.435434187639531e-08</v>
+        <v>0.0607495022438095</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1147092920653188</v>
+        <v>0.1319285412359135</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6498690672850753</v>
+        <v>0.1510600861986753</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03090545834368836</v>
+        <v>0.6166222916092189</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6498690672850753</v>
+        <v>0.6166222916092189</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_30.fasta</t>
+          <t>label_12718_7_59_24.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6972787217756525</v>
+        <v>0.1126692242522145</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001781027378237241</v>
+        <v>0.0372601238677852</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02101670665658392</v>
+        <v>0.09555978202229824</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2813548950149825</v>
+        <v>0.2844245583565047</v>
       </c>
       <c r="F32" t="n">
-        <v>0.000171573814957197</v>
+        <v>0.4700863115011974</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6972787217756525</v>
+        <v>0.4700863115011974</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus antri</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_13.fasta</t>
+          <t>label_12718_7_59_25.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.005666276189699004</v>
+        <v>0.2207321527178325</v>
       </c>
       <c r="C33" t="n">
-        <v>0.005483851684903269</v>
+        <v>0.0369341577898407</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01801849873737796</v>
+        <v>0.07217589922335313</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7870170032649986</v>
+        <v>0.2174720921460221</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1838143701230212</v>
+        <v>0.4526856981229515</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7870170032649986</v>
+        <v>0.4526856981229515</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_19.fasta</t>
+          <t>label_12718_7_59_27.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2623617812920981</v>
+        <v>0.07898487209344494</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02729608562029974</v>
+        <v>0.02406008187357445</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03556400610483691</v>
+        <v>0.05281093169336157</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3843946898705426</v>
+        <v>0.4655643579449186</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2903834371122225</v>
+        <v>0.3785797563947005</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3843946898705426</v>
+        <v>0.4655643579449186</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -4251,1319 +4732,58 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_26.fasta</t>
+          <t>label_12718_7_59_4.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2834264675248035</v>
+        <v>0.09984133873668752</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03060574097417789</v>
+        <v>0.1113798981761716</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05447628880395411</v>
+        <v>0.1714159994691049</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4037754917178675</v>
+        <v>0.05515248142546725</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2277160109791971</v>
+        <v>0.5622102821925687</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4037754917178675</v>
+        <v>0.5622102821925687</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus sp900557215</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2022_29.fasta</t>
+          <t>label_12718_7_59_7.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3108413881267184</v>
+        <v>0.06404567444024734</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1088893046973279</v>
+        <v>0.09212466858570252</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05749230765865239</v>
+        <v>0.1629999961281128</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4273506745018987</v>
+        <v>0.04946940040817623</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09542632501540264</v>
+        <v>0.6313602604377612</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4273506745018987</v>
+        <v>0.6313602604377612</v>
       </c>
       <c r="H36" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus sp900557215</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>Row</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus antri</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus fermentum</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus reuteri_E</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus sp900557215</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="H1" s="11" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_0.fasta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.07413933657424734</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1095066443609019</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1904253957793007</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02013586688718061</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.6057927563983694</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.6057927563983694</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_1.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0469283319973865</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08490987439796541</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1669848869313017</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2444351174986808</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4567417891746657</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4567417891746657</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_12.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.09555845894170023</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.08903442885114531</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.154616477242913</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0575104059100873</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6032802290541539</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6032802290541539</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_19.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.03963957871238278</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0607495022438095</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1319285412359135</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1510600861986753</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6166222916092189</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6166222916092189</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_24.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1126692242522145</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0372601238677852</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.09555978202229824</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2844245583565047</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.4700863115011974</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4700863115011974</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_25.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2207321527178325</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0369341577898407</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.07217589922335313</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2174720921460221</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4526856981229515</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4526856981229515</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_27.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.07898487209344494</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02406008187357445</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.05281093169336157</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4655643579449186</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.3785797563947005</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4655643579449186</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus sp900557215</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_4.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.09984133873668752</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1113798981761716</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1714159994691049</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.05515248142546725</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.5622102821925687</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5622102821925687</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_7.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.06404567444024734</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09212466858570252</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1629999961281128</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.04946940040817623</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6313602604377612</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6313602604377612</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_21.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.1088843184355375</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0196274549897704</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.07705304560771406</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.2370265997126077</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.5574085812543703</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.5574085812543703</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_22.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.0893563482639487</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01805305993366746</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.07537311208278613</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.2356315148369452</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.5815859648826525</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.5815859648826525</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_26.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.1389851600384823</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0174756915608595</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.08358766780266978</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.22387945431882</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.5360720262791684</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.5360720262791684</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_28.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.08724558927819889</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.01122764743785621</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0454774282543881</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.4353857997142349</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.4206635353153219</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.4353857997142349</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus sp900557215</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_3.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.1292369022877397</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.03984053056662775</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1194676329877339</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.07759571927573636</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.6338592148821622</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.6338592148821622</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_10.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.0170128091365093</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06128790866027348</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.1302286519082395</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.04764638901179242</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.7438242412831853</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.7438242412831853</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_17.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.006135097947166779</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.04125329774919346</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.1439304776600714</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.09826648773487685</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.7104146389086915</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.7104146389086915</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_23.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.07786784382999842</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0461113539042559</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.07856527290055099</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.2447935011926607</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.5526620281725341</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.5526620281725341</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_29.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.002417073782488066</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.007671160082383302</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.01033809767365144</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.7963040652790646</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.1832696031824126</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.7963040652790646</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus sp900557215</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_9.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.01997196925987755</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.06689468900196541</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.1555018646339869</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.06352410625022313</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.6941073708539471</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.6941073708539471</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_15.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.09675105056268367</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.08613943346438548</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.03114614509082771</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.05565210612190937</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.7303112647601937</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.7303112647601937</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_2.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.03192610684241861</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.03681876540621536</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.02423740919750326</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.04936153714547348</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.8576561814083893</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.8576561814083893</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_20.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.09441997583205192</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.03834271675143209</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.04293586651979415</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.1909919755564768</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.6333094653402451</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.6333094653402451</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_5.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.03664872739070219</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.03610403114917678</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.01958024608038771</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.01053412669252623</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.8971328686872071</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.8971328686872071</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_6.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.02663819275728805</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.02942880803120132</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.03921796166767139</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.3628966035651085</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.5418184339787308</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.5418184339787308</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_8.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.02101306364575642</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.02231499624183521</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.02075934927465278</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.01759364666817147</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9183189441695842</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9183189441695842</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_11.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.006683992581955795</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4.709956852944692e-14</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.07361921244545992</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.04544113780093185</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.8742556571716052</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.8742556571716052</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_13.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.03252754393818752</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.887817393261262e-14</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.06084292244653873</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.01568546779803737</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.8909440658171974</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.8909440658171974</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_14.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.005363195571403806</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3.846782183790894e-14</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.06740483239094781</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.3191186065094359</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.6081133655281741</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.6081133655281741</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_16.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.01881118760669499</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7.97300154101991e-14</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.1317893165427355</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.1385795163323588</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.7108199795181309</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.7108199795181309</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_18.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.01414636041720254</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.02252466223991e-14</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.04987017036037737</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.05327463952258699</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.8827088296998028</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.8827088296998028</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_30.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.4339969553783487</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5500061539541449</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.01599415557605878</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2.735091425274203e-06</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2.250450508504107e-14</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.5500061539541449</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus fermentum</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_0.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.07413933657424734</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.1095066443609019</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1904253957793007</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.02013586688718061</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.6057927563983694</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.6057927563983694</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_1.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.0469283319973865</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.08490987439796541</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.1669848869313017</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.2444351174986808</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.4567417891746657</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.4567417891746657</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_12.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.09555845894170023</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.08903442885114531</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.154616477242913</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.0575104059100873</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.6032802290541539</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.6032802290541539</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_19.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.03963957871238278</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.0607495022438095</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1319285412359135</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.1510600861986753</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.6166222916092189</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.6166222916092189</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_24.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.1126692242522145</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0372601238677852</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.09555978202229824</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.2844245583565047</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.4700863115011974</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.4700863115011974</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_25.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.2207321527178325</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.0369341577898407</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.07217589922335313</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.2174720921460221</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.4526856981229515</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.4526856981229515</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_27.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.07898487209344494</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.02406008187357445</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.05281093169336157</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.4655643579449186</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.3785797563947005</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.4655643579449186</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus sp900557215</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_4.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.09984133873668752</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.1113798981761716</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.1714159994691049</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.05515248142546725</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.5622102821925687</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.5622102821925687</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_59_7.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.06404567444024734</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.09212466858570252</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.1629999961281128</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.04946940040817623</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.6313602604377612</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.6313602604377612</v>
-      </c>
-      <c r="H41" t="inlineStr">
         <is>
           <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
